--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="1020">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,832 +58,832 @@
     <t>19</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>stressed</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>strained</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>hungry</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>stressed</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>websites</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>strained</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>better</t>
@@ -3439,10 +3439,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02907788512159742</v>
+        <v>0.0295367889638801</v>
       </c>
       <c r="C3">
         <v>145</v>
@@ -3521,7 +3521,7 @@
         <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>0.01071014559860429</v>
@@ -3550,7 +3550,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01991284309423193</v>
+        <v>0.02022710529619406</v>
       </c>
       <c r="C4">
         <v>68</v>
@@ -3600,7 +3600,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01079925542225699</v>
+        <v>0.01096968803062386</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -3621,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>0.008104929969072989</v>
@@ -3650,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01079925542225699</v>
+        <v>0.01096968803062386</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3671,7 +3671,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="K6">
         <v>0.007854201117634624</v>
@@ -3680,19 +3680,19 @@
         <v>185</v>
       </c>
       <c r="M6">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N6">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3700,7 +3700,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008706638070394658</v>
+        <v>0.008844045232131503</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -3721,7 +3721,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7">
         <v>0.007484637900562942</v>
@@ -3750,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008706638070394658</v>
+        <v>0.008844045232131503</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3771,7 +3771,7 @@
         <v>1885</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="K8">
         <v>0.007212377548022477</v>
@@ -3780,19 +3780,19 @@
         <v>156</v>
       </c>
       <c r="M8">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3800,28 +3800,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008706638070394658</v>
+        <v>0.008844045232131503</v>
       </c>
       <c r="C9">
         <v>13</v>
       </c>
       <c r="D9">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="E9">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F9">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>142</v>
+        <v>2750</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0.006684494230315692</v>
@@ -3850,28 +3850,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008706638070394658</v>
+        <v>0.008135338377662404</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2750</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K10">
         <v>0.006272738129293386</v>
@@ -3900,28 +3900,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008008942172430195</v>
+        <v>0.008135338377662404</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>2993</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11">
         <v>0.006083838025272515</v>
@@ -3950,28 +3950,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008008942172430195</v>
+        <v>0.007756740793955033</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2993</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>0.006056371347636697</v>
@@ -4000,7 +4000,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007636226740843514</v>
+        <v>0.007756740793955033</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4018,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K13">
         <v>0.005973213561278687</v>
@@ -4050,13 +4050,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007636226740843514</v>
+        <v>0.007358690438532221</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14">
         <v>0.005860501290805713</v>
@@ -4100,13 +4100,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007244360769164951</v>
+        <v>0.006937839879651657</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>0.005716486621444174</v>
@@ -4150,28 +4150,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006830048833651107</v>
+        <v>0.006937839879651657</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K16">
         <v>0.005628309305761286</v>
@@ -4200,28 +4200,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006830048833651107</v>
+        <v>0.006489754958488364</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K17">
         <v>0.005478194004864548</v>
@@ -4250,28 +4250,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006830048833651107</v>
+        <v>0.006489754958488364</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0.005099921072684298</v>
@@ -4300,28 +4300,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006388925667614351</v>
+        <v>0.006489754958488364</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>933</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>0.004967432946553097</v>
@@ -4350,28 +4350,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006388925667614351</v>
+        <v>0.006489754958488364</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K20">
         <v>0.00465556968834189</v>
@@ -4400,28 +4400,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006388925667614351</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>933</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>0.004619618805240402</v>
@@ -4450,28 +4450,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006388925667614351</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K22">
         <v>0.004546864355924495</v>
@@ -4500,7 +4500,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4518,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23">
         <v>0.00447292667463067</v>
@@ -4550,7 +4550,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K24">
         <v>0.004359669641703538</v>
@@ -4600,7 +4600,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -4618,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K25">
         <v>0.004359669641703538</v>
@@ -4650,7 +4650,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -4668,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K26">
         <v>0.004282501249297818</v>
@@ -4700,7 +4700,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -4718,10 +4718,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K27">
         <v>0.004203916568592113</v>
@@ -4750,28 +4750,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005914995799030133</v>
+        <v>0.006008345583167107</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>783</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K28">
         <v>0.00412383463309687</v>
@@ -4800,13 +4800,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005914995799030133</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>290</v>
@@ -4850,28 +4850,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005914995799030133</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>783</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K30">
         <v>0.003786608290134174</v>
@@ -4900,7 +4900,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4918,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K31">
         <v>0.003786608290134174</v>
@@ -4950,7 +4950,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>291</v>
@@ -5000,7 +5000,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5018,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K33">
         <v>0.003652129336576366</v>
@@ -5050,7 +5050,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K34">
         <v>0.003652129336576366</v>
@@ -5100,7 +5100,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5118,10 +5118,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K35">
         <v>0.003464714103930301</v>
@@ -5150,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -5168,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K36">
         <v>0.003367096878234938</v>
@@ -5200,7 +5200,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -5218,10 +5218,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K37">
         <v>0.003266563783682385</v>
@@ -5250,7 +5250,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>292</v>
@@ -5300,28 +5300,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>786</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K39">
         <v>0.003162836783381541</v>
@@ -5350,25 +5350,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>293</v>
@@ -5400,28 +5400,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005399627711128497</v>
+        <v>0.005484844015311928</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E41">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F41">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>786</v>
+        <v>571</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K41">
         <v>0.003109676076544669</v>
@@ -5450,28 +5450,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005399627711128497</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K42">
         <v>0.003055590627645858</v>
@@ -5500,28 +5500,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005399627711128497</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K43">
         <v>0.003055590627645858</v>
@@ -5550,7 +5550,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -5568,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K44">
         <v>0.003055590627645858</v>
@@ -5600,7 +5600,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>294</v>
@@ -5650,7 +5650,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -5668,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K46">
         <v>0.002944440804160124</v>
@@ -5700,7 +5700,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -5718,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K47">
         <v>0.002887261753275251</v>
@@ -5750,7 +5750,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>295</v>
@@ -5800,7 +5800,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5818,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K49">
         <v>0.002887261753275251</v>
@@ -5850,25 +5850,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>296</v>
@@ -5900,28 +5900,28 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K51">
         <v>0.00276936418648252</v>
@@ -5950,25 +5950,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E52">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F52">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>297</v>
@@ -6000,25 +6000,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>298</v>
@@ -6050,25 +6050,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>299</v>
@@ -6100,7 +6100,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004829573846109967</v>
+        <v>0.004905793625688147</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6118,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K55">
         <v>0.002582445419663475</v>
@@ -6150,25 +6150,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004829573846109967</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>4</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>26</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>300</v>
@@ -6200,13 +6200,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004829573846109967</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>301</v>
@@ -6250,7 +6250,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6268,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K58">
         <v>0.002449922837761789</v>
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>302</v>
@@ -6350,7 +6350,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>303</v>
@@ -6400,7 +6400,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K61">
         <v>0.002449922837761789</v>
@@ -6450,7 +6450,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K62">
         <v>0.00238089703551198</v>
@@ -6500,7 +6500,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>304</v>
@@ -6550,7 +6550,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>305</v>
@@ -6600,7 +6600,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>306</v>
@@ -6650,7 +6650,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>307</v>
@@ -6700,25 +6700,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>308</v>
@@ -6750,28 +6750,28 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>27</v>
+        <v>780</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K68">
         <v>0.002309809402620201</v>
@@ -6800,28 +6800,28 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E69">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F69">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>127</v>
+        <v>348</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K69">
         <v>0.002236463337315335</v>
@@ -6850,28 +6850,28 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E70">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F70">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>780</v>
+        <v>212</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K70">
         <v>0.002236463337315335</v>
@@ -6900,25 +6900,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E71">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F71">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>348</v>
+        <v>1098</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>309</v>
@@ -6950,25 +6950,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="F72">
-        <v>0.02000000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>310</v>
@@ -7000,28 +7000,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E73">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F73">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1098</v>
+        <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K73">
         <v>0.002160628853338445</v>
@@ -7050,28 +7050,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E74">
-        <v>0.57</v>
+        <v>0.95</v>
       </c>
       <c r="F74">
-        <v>0.43</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K74">
         <v>0.002160628853338445</v>
@@ -7100,25 +7100,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>311</v>
@@ -7150,28 +7150,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004182533640184148</v>
+        <v>0.004248541905569703</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K76">
         <v>0.002160628853338445</v>
@@ -7200,13 +7200,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004182533640184148</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7250,13 +7250,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004182533640184148</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>314</v>
@@ -7350,7 +7350,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7368,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K80">
         <v>0.002160628853338445</v>
@@ -7400,7 +7400,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7418,10 +7418,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K81">
         <v>0.002082034059423995</v>
@@ -7450,7 +7450,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7468,10 +7468,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K82">
         <v>0.002082034059423995</v>
@@ -7500,7 +7500,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7550,7 +7550,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7568,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K84">
         <v>0.002000353620569253</v>
@@ -7600,7 +7600,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>316</v>
@@ -7650,7 +7650,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>317</v>
@@ -7700,7 +7700,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>318</v>
@@ -7750,7 +7750,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7800,7 +7800,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>320</v>
@@ -7850,25 +7850,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>321</v>
@@ -7900,7 +7900,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7918,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K91">
         <v>0.001915192781431539</v>
@@ -7950,28 +7950,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K92">
         <v>0.001915192781431539</v>
@@ -8000,7 +8000,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>322</v>
@@ -8050,7 +8050,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>323</v>
@@ -8100,25 +8100,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>324</v>
@@ -8150,7 +8150,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>325</v>
@@ -8200,25 +8200,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E97">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F97">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>326</v>
@@ -8250,28 +8250,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K98">
         <v>0.001915192781431539</v>
@@ -8300,28 +8300,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F99">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K99">
         <v>0.001915192781431539</v>
@@ -8350,25 +8350,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E100">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F100">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>327</v>
@@ -8400,28 +8400,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F101">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K101">
         <v>0.001826064668288183</v>
@@ -8450,28 +8450,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E102">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="F102">
-        <v>0.03000000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K102">
         <v>0.001826064668288183</v>
@@ -8500,28 +8500,28 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F103">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K103">
         <v>0.001826064668288183</v>
@@ -8550,25 +8550,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E104">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F104">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>328</v>
@@ -8600,28 +8600,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E105">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F105">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K105">
         <v>0.001826064668288183</v>
@@ -8650,25 +8650,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F106">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>329</v>
@@ -8700,25 +8700,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F107">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>330</v>
@@ -8750,25 +8750,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E108">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F108">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>331</v>
@@ -8800,19 +8800,19 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E109">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F109">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -8850,25 +8850,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E110">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F110">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>333</v>
@@ -8900,28 +8900,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E111">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F111">
-        <v>0.06000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K111">
         <v>0.001826064668288183</v>
@@ -8950,28 +8950,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="F112">
-        <v>0.08999999999999997</v>
+        <v>0.29</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K112">
         <v>0.001732357051965151</v>
@@ -9000,25 +9000,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="E113">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="F113">
-        <v>0.4</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>334</v>
@@ -9050,28 +9050,28 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E114">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="F114">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K114">
         <v>0.001732357051965151</v>
@@ -9100,28 +9100,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E115">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F115">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K115">
         <v>0.001732357051965151</v>
@@ -9150,25 +9150,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>335</v>
@@ -9200,25 +9200,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>336</v>
@@ -9250,7 +9250,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003415024416825553</v>
+        <v>0.003468919939825829</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -9268,10 +9268,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K118">
         <v>0.001732357051965151</v>
@@ -9300,13 +9300,13 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003415024416825553</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>337</v>
@@ -9350,13 +9350,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003415024416825553</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>338</v>
@@ -9400,7 +9400,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K121">
         <v>0.001732357051965151</v>
@@ -9450,7 +9450,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>339</v>
@@ -9500,7 +9500,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>340</v>
@@ -9550,7 +9550,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9568,10 +9568,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K124">
         <v>0.001633281891841193</v>
@@ -9600,7 +9600,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9618,10 +9618,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K125">
         <v>0.001633281891841193</v>
@@ -9650,7 +9650,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>341</v>
@@ -9700,7 +9700,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>342</v>
@@ -9750,7 +9750,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>343</v>
@@ -9800,7 +9800,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9818,10 +9818,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K129">
         <v>0.001633281891841193</v>
@@ -9850,7 +9850,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>344</v>
@@ -9900,7 +9900,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>345</v>
@@ -9950,7 +9950,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>346</v>
@@ -10000,7 +10000,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10018,10 +10018,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K133">
         <v>0.001633281891841193</v>
@@ -10050,7 +10050,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>347</v>
@@ -10100,7 +10100,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>348</v>
@@ -10150,7 +10150,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10168,10 +10168,10 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K136">
         <v>0.001633281891841193</v>
@@ -10200,7 +10200,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>349</v>
@@ -10250,7 +10250,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>350</v>
@@ -10300,7 +10300,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>351</v>
@@ -10350,7 +10350,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10368,10 +10368,10 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K140">
         <v>0.001527795313822929</v>
@@ -10400,7 +10400,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10418,10 +10418,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K141">
         <v>0.001527795313822929</v>
@@ -10450,7 +10450,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>352</v>
@@ -10500,7 +10500,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10518,10 +10518,10 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K143">
         <v>0.001527795313822929</v>
@@ -10550,7 +10550,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>353</v>
@@ -10600,7 +10600,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>354</v>
@@ -10650,28 +10650,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K146">
         <v>0.001527795313822929</v>
@@ -10700,7 +10700,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>355</v>
@@ -10750,25 +10750,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>356</v>
@@ -10800,28 +10800,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K149">
         <v>0.001527795313822929</v>
@@ -10850,7 +10850,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10868,10 +10868,10 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K150">
         <v>0.001527795313822929</v>
@@ -10900,25 +10900,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>357</v>
@@ -10950,25 +10950,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F152">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>358</v>
@@ -11000,7 +11000,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11018,10 +11018,10 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K153">
         <v>0.001527795313822929</v>
@@ -11050,25 +11050,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E154">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F154">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>359</v>
@@ -11100,25 +11100,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>360</v>
@@ -11150,28 +11150,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K156">
         <v>0.00141446360987558</v>
@@ -11200,28 +11200,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K157">
         <v>0.00141446360987558</v>
@@ -11250,7 +11250,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>361</v>
@@ -11300,7 +11300,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>362</v>
@@ -11350,25 +11350,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>363</v>
@@ -11400,7 +11400,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11418,10 +11418,10 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K161">
         <v>0.00141446360987558</v>
@@ -11450,25 +11450,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>364</v>
@@ -11500,7 +11500,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>365</v>
@@ -11550,28 +11550,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K164">
         <v>0.00141446360987558</v>
@@ -11600,25 +11600,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>366</v>
@@ -11650,25 +11650,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>367</v>
@@ -11700,25 +11700,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F167">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>368</v>
@@ -11750,25 +11750,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>369</v>
@@ -11800,25 +11800,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>370</v>
@@ -11850,7 +11850,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11868,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>371</v>
@@ -11900,25 +11900,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>372</v>
@@ -11950,28 +11950,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K172">
         <v>0.00141446360987558</v>
@@ -12000,25 +12000,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>373</v>
@@ -12050,7 +12050,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -12068,10 +12068,10 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K174">
         <v>0.00141446360987558</v>
@@ -12100,7 +12100,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>374</v>
@@ -12150,25 +12150,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>375</v>
@@ -12200,25 +12200,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>376</v>
@@ -12250,19 +12250,19 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F178">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -12300,25 +12300,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F179">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>378</v>
@@ -12350,25 +12350,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F180">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>379</v>
@@ -12400,25 +12400,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>380</v>
@@ -12450,28 +12450,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K182">
         <v>0.001291222709831738</v>
@@ -12500,25 +12500,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E183">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F183">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>24</v>
+        <v>515</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>381</v>
@@ -12550,7 +12550,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12568,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>382</v>
@@ -12600,28 +12600,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>515</v>
+        <v>372</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K185">
         <v>0.001291222709831738</v>
@@ -12650,25 +12650,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>383</v>
@@ -12700,25 +12700,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>384</v>
@@ -12750,25 +12750,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E188">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F188">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>385</v>
@@ -12800,25 +12800,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F189">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>386</v>
@@ -12850,7 +12850,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>387</v>
@@ -12900,25 +12900,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F191">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>388</v>
@@ -12950,25 +12950,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F192">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>389</v>
@@ -13000,25 +13000,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>390</v>
@@ -13050,25 +13050,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>391</v>
@@ -13100,28 +13100,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K195">
         <v>0.001291222709831738</v>
@@ -13150,28 +13150,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K196">
         <v>0.001291222709831738</v>
@@ -13200,25 +13200,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>392</v>
@@ -13250,25 +13250,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F198">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>393</v>
@@ -13300,25 +13300,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E199">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F199">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>394</v>
@@ -13350,7 +13350,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13368,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>395</v>
@@ -13400,25 +13400,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F201">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>396</v>
@@ -13450,25 +13450,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>397</v>
@@ -13500,25 +13500,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E203">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F203">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>398</v>
@@ -13550,25 +13550,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>399</v>
@@ -13600,28 +13600,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="E205">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F205">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>20</v>
+        <v>530</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K205">
         <v>0.001291222709831738</v>
@@ -13650,25 +13650,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E206">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>400</v>
@@ -13700,28 +13700,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E207">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F207">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>530</v>
+        <v>44</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K207">
         <v>0.001291222709831738</v>
@@ -13750,28 +13750,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E208">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F208">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K208">
         <v>0.001291222709831738</v>
@@ -13800,25 +13800,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>401</v>
@@ -13850,25 +13850,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>402</v>
@@ -13900,19 +13900,19 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -13921,7 +13921,7 @@
         <v>19</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K211">
         <v>0.001291222709831738</v>
@@ -13950,25 +13950,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>403</v>
@@ -14000,25 +14000,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>404</v>
@@ -14050,28 +14050,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K214">
         <v>0.001291222709831738</v>
@@ -14100,25 +14100,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>405</v>
@@ -14150,25 +14150,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>406</v>
@@ -14200,25 +14200,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>407</v>
@@ -14250,28 +14250,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E218">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F218">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K218">
         <v>0.001291222709831738</v>
@@ -14300,25 +14300,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E219">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F219">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>408</v>
@@ -14350,25 +14350,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>409</v>
@@ -14400,25 +14400,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>410</v>
@@ -14450,25 +14450,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>411</v>
@@ -14500,25 +14500,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>412</v>
@@ -14550,28 +14550,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E224">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F224">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K224">
         <v>0.001291222709831738</v>
@@ -14600,25 +14600,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>413</v>
@@ -14650,28 +14650,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K226">
         <v>0.0011549047013101</v>
@@ -14700,25 +14700,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>414</v>
@@ -14750,28 +14750,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K228">
         <v>0.0011549047013101</v>
@@ -14800,7 +14800,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14818,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>415</v>
@@ -14850,25 +14850,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>416</v>
@@ -14900,28 +14900,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K231">
         <v>0.0011549047013101</v>
@@ -14950,25 +14950,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F232">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>417</v>
@@ -15000,25 +15000,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>418</v>
@@ -15050,25 +15050,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E234">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F234">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>419</v>
@@ -15100,25 +15100,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>420</v>
@@ -15150,25 +15150,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E236">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F236">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>421</v>
@@ -15200,25 +15200,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>422</v>
@@ -15250,25 +15250,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F238">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>423</v>
@@ -15300,25 +15300,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E239">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F239">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>424</v>
@@ -15350,25 +15350,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E240">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F240">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>425</v>
@@ -15400,25 +15400,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F241">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>426</v>
@@ -15450,28 +15450,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E242">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F242">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K242">
         <v>0.0011549047013101</v>
@@ -15500,25 +15500,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E243">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F243">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>279</v>
+        <v>52</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>427</v>
@@ -15550,25 +15550,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E244">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F244">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>428</v>
@@ -15600,25 +15600,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E245">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F245">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>429</v>
@@ -15650,25 +15650,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E246">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F246">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>430</v>
@@ -15700,25 +15700,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E247">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F247">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>431</v>
@@ -15750,25 +15750,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>432</v>
@@ -15800,25 +15800,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E249">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F249">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>433</v>
@@ -15850,28 +15850,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K250">
         <v>0.0011549047013101</v>
@@ -15900,25 +15900,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E251">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F251">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>434</v>
@@ -15950,25 +15950,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E252">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F252">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>435</v>
@@ -16000,25 +16000,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E253">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F253">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>436</v>
@@ -16050,25 +16050,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E254">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F254">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>437</v>
@@ -16100,25 +16100,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E255">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F255">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>68</v>
+        <v>432</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>438</v>
@@ -16150,28 +16150,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E256">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <v>28</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K256">
         <v>0.0011549047013101</v>
@@ -16200,25 +16200,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E257">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F257">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>439</v>
@@ -16250,25 +16250,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>440</v>
@@ -16300,28 +16300,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E259">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F259">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K259">
         <v>0.0011549047013101</v>
@@ -16350,25 +16350,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E260">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F260">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>441</v>
@@ -16400,25 +16400,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E261">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F261">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>442</v>
@@ -16450,25 +16450,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E262">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F262">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>443</v>
@@ -16500,25 +16500,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E263">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F263">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>444</v>
@@ -16550,25 +16550,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E264">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F264">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>445</v>
@@ -16600,25 +16600,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E265">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F265">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>446</v>
@@ -16650,25 +16650,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F266">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>447</v>
@@ -16700,25 +16700,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E267">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>448</v>
@@ -16750,25 +16750,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E268">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>449</v>
@@ -16800,7 +16800,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>450</v>
@@ -16850,7 +16850,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16868,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>451</v>
@@ -16900,25 +16900,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>452</v>
@@ -16950,7 +16950,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -16968,10 +16968,10 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K272">
         <v>0.0011549047013101</v>
@@ -17000,25 +17000,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E273">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>283</v>
+        <v>8</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>453</v>
@@ -17050,7 +17050,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>454</v>
@@ -17100,7 +17100,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17118,7 +17118,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>455</v>
@@ -17150,7 +17150,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>456</v>
@@ -17200,7 +17200,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17218,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>457</v>
@@ -17250,7 +17250,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17268,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>458</v>
@@ -17300,7 +17300,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>459</v>
@@ -17350,25 +17350,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>460</v>
@@ -17400,7 +17400,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.002414786923054984</v>
+        <v>0.002452896812844074</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>461</v>
@@ -17446,30 +17446,6 @@
       </c>
     </row>
     <row r="282" spans="1:17">
-      <c r="A282" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B282">
-        <v>0.002414786923054984</v>
-      </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>3</v>
-      </c>
-      <c r="E282">
-        <v>0.67</v>
-      </c>
-      <c r="F282">
-        <v>0.33</v>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282">
-        <v>127</v>
-      </c>
       <c r="J282" s="1" t="s">
         <v>462</v>
       </c>
@@ -17496,30 +17472,6 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0.002414786923054984</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283" t="b">
-        <v>0</v>
-      </c>
-      <c r="H283">
-        <v>44</v>
-      </c>
       <c r="J283" s="1" t="s">
         <v>463</v>
       </c>
@@ -17755,7 +17707,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K292">
         <v>0.001000176810284626</v>
@@ -17807,7 +17759,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K294">
         <v>0.001000176810284626</v>
@@ -17885,7 +17837,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K297">
         <v>0.001000176810284626</v>
@@ -17963,7 +17915,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K300">
         <v>0.001000176810284626</v>
@@ -18197,7 +18149,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K309">
         <v>0.001000176810284626</v>
@@ -18249,7 +18201,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K311">
         <v>0.001000176810284626</v>
@@ -18431,7 +18383,7 @@
     </row>
     <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K318">
         <v>0.001000176810284626</v>
@@ -18665,7 +18617,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K327">
         <v>0.001000176810284626</v>
@@ -18899,7 +18851,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K336">
         <v>0.001000176810284626</v>
@@ -19081,7 +19033,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K343">
         <v>0.001000176810284626</v>
@@ -19107,7 +19059,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K344">
         <v>0.001000176810284626</v>
@@ -19445,7 +19397,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K357">
         <v>0.001000176810284626</v>
@@ -19679,7 +19631,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K366">
         <v>0.001000176810284626</v>
@@ -20173,7 +20125,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K385">
         <v>0.0008166409459205963</v>
@@ -20563,7 +20515,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K400">
         <v>0.0008166409459205963</v>
@@ -20901,7 +20853,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K413">
         <v>0.0008166409459205963</v>
@@ -20953,7 +20905,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K415">
         <v>0.0008166409459205963</v>
@@ -20979,7 +20931,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K416">
         <v>0.0008166409459205963</v>
@@ -21291,7 +21243,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K428">
         <v>0.0008166409459205963</v>
@@ -21733,7 +21685,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K445">
         <v>0.0008166409459205963</v>
@@ -21837,7 +21789,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K449">
         <v>0.0008166409459205963</v>
@@ -21967,7 +21919,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K454">
         <v>0.0008166409459205963</v>
@@ -22149,7 +22101,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K461">
         <v>0.0008166409459205963</v>
@@ -22331,7 +22283,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K468">
         <v>0.0008166409459205963</v>
@@ -22565,7 +22517,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K477">
         <v>0.0008166409459205963</v>
@@ -22695,7 +22647,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K482">
         <v>0.0008166409459205963</v>
@@ -23709,7 +23661,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K521">
         <v>0.0005774523506550502</v>
@@ -24749,7 +24701,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K561">
         <v>0.0005774523506550502</v>
@@ -25087,7 +25039,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K574">
         <v>0.0005774523506550502</v>
@@ -26023,7 +25975,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K610">
         <v>0.0005774523506550502</v>
@@ -26153,7 +26105,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K615">
         <v>0.0005774523506550502</v>
@@ -28805,7 +28757,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K717">
         <v>0.0005774523506550502</v>
@@ -28857,7 +28809,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K719">
         <v>0.0005774523506550502</v>
@@ -30339,7 +30291,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K776">
         <v>0.0005774523506550502</v>
@@ -30781,7 +30733,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K793">
         <v>0.0005774523506550502</v>
@@ -32809,7 +32761,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K871">
         <v>0.0005774523506550502</v>
